--- a/MICS-UNICEF/MICS_UNICEF_cleaned.xlsx
+++ b/MICS-UNICEF/MICS_UNICEF_cleaned.xlsx
@@ -438,7 +438,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Start Year</t>
+          <t>End Year</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
